--- a/data/trans_dic/P37-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02060314325700493</v>
+        <v>0.02228036167713041</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04014473958061481</v>
+        <v>0.0420096020913467</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03436265677625508</v>
+        <v>0.03530548611411497</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01338583020943294</v>
+        <v>0.01248700565723414</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01284444484114789</v>
+        <v>0.01296431206712604</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01718639561739499</v>
+        <v>0.01717489539942828</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02153325501794595</v>
+        <v>0.02199791136525602</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07930805383868705</v>
+        <v>0.07750562371474871</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02183060381915396</v>
+        <v>0.02061472212885053</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0343696147865696</v>
+        <v>0.03460837669106014</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03195822058337772</v>
+        <v>0.03297163290279781</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04970221524184167</v>
+        <v>0.05037836668843231</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0572194339712226</v>
+        <v>0.05500573399169477</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08779151999067913</v>
+        <v>0.09020769714599083</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07933955207484032</v>
+        <v>0.07951043043521383</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07850519127025275</v>
+        <v>0.07071186054636702</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0409931596217164</v>
+        <v>0.04277322476416178</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05425873154416539</v>
+        <v>0.0534728443642463</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06257621935384487</v>
+        <v>0.0614088063392657</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1777143842537</v>
+        <v>0.1807423800452827</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04540152109304429</v>
+        <v>0.04298144682442701</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06238656901710737</v>
+        <v>0.06280437719023849</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06333342910191338</v>
+        <v>0.06303954724417563</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1050092782112986</v>
+        <v>0.1047430614917299</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03217803854470556</v>
+        <v>0.03120994163687039</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0430798168216779</v>
+        <v>0.0442038976677718</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02667036902981514</v>
+        <v>0.02678638352296179</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.07675579905317964</v>
+        <v>0.07681924858202734</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02436553595442126</v>
+        <v>0.02319843314017163</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03647232510294345</v>
+        <v>0.03725177807451954</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02801095740409034</v>
+        <v>0.02773176977087587</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1291421158650903</v>
+        <v>0.127675208230796</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03195911432077726</v>
+        <v>0.03193864886934949</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04554335975204779</v>
+        <v>0.04463842641938074</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03109356379744495</v>
+        <v>0.03137194052557409</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1137963365057426</v>
+        <v>0.1139413994438437</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06453761408288083</v>
+        <v>0.06364690502118636</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08182481896319435</v>
+        <v>0.08209265450028154</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06077904586657901</v>
+        <v>0.05906280598306008</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1533098016105101</v>
+        <v>0.1523376612740305</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05450598390082935</v>
+        <v>0.05656027916014693</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07442999666279501</v>
+        <v>0.07428721314871553</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06292850220271698</v>
+        <v>0.05817527891670434</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2015672749660047</v>
+        <v>0.1973885510015688</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05442506804415308</v>
+        <v>0.05368697855110714</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07188501770031074</v>
+        <v>0.07291361498707234</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05315741921341113</v>
+        <v>0.05418511693597328</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1657468940752</v>
+        <v>0.1638627397735624</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0378852650721317</v>
+        <v>0.03794144578367626</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05512119263141332</v>
+        <v>0.0554096198976919</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01535079401909096</v>
+        <v>0.01602533480669256</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1174538393790163</v>
+        <v>0.1191452146480573</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04674799641577115</v>
+        <v>0.04740830617590502</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05529532399303828</v>
+        <v>0.05324296718156906</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04770018251332202</v>
+        <v>0.04744744464420986</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1330691938654655</v>
+        <v>0.1339783652923123</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04772405008652036</v>
+        <v>0.04661406327465627</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05901660327251546</v>
+        <v>0.05954774679262986</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03577180622720537</v>
+        <v>0.03564734589787612</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1349982117260986</v>
+        <v>0.1360479843137807</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07556632458100636</v>
+        <v>0.07591434265089116</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09757258699747173</v>
+        <v>0.09666585291622429</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04247611782052566</v>
+        <v>0.04406367294121116</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1797329482333772</v>
+        <v>0.1849233381240331</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08568027309144444</v>
+        <v>0.08537604214494841</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09366906180866474</v>
+        <v>0.0940756252985917</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.08792738443784472</v>
+        <v>0.08772917715010088</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1862546172344552</v>
+        <v>0.1852437164123734</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07538703381672525</v>
+        <v>0.0732788946726687</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.08834155313414846</v>
+        <v>0.08944384994928019</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05857249463078173</v>
+        <v>0.06031425353944753</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1765551619047511</v>
+        <v>0.1752706910983071</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.06996266051954737</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2263282552614446</v>
+        <v>0.2263282552614447</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.06279660140892747</v>
@@ -1105,7 +1105,7 @@
         <v>0.07484309112121057</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2155976992699955</v>
+        <v>0.2155976992699956</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05396209143869547</v>
+        <v>0.05278644150728422</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06354058359966695</v>
+        <v>0.06410814129320794</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06090044542310041</v>
+        <v>0.05912668241522876</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1736675001526517</v>
+        <v>0.1752639762370478</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03378878911565562</v>
+        <v>0.03281364106265862</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04967530717822378</v>
+        <v>0.05070343274487824</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05136214035406031</v>
+        <v>0.05055488067365028</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2023594385379687</v>
+        <v>0.2030440507462455</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04873662595621667</v>
+        <v>0.04970772295800585</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06298065495583367</v>
+        <v>0.062713297343158</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06203656728108441</v>
+        <v>0.05947785402677743</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1977740986314185</v>
+        <v>0.1967178441220974</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1046985158939199</v>
+        <v>0.1016381101322543</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1101154214744988</v>
+        <v>0.1104414894859075</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1038032199344263</v>
+        <v>0.105326690946577</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2363734502530671</v>
+        <v>0.2389090660775966</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07338087088389403</v>
+        <v>0.07299424306405015</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1006170741569116</v>
+        <v>0.09652932599389233</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09330850960455134</v>
+        <v>0.09519177186907311</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2503201861899365</v>
+        <v>0.2507600983465786</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07890671710749643</v>
+        <v>0.08116502399586155</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09673975519884684</v>
+        <v>0.09660614117796675</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09215981273202185</v>
+        <v>0.09111306639283599</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2377762994829406</v>
+        <v>0.2362753908027227</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1898968164550507</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3657557766832604</v>
+        <v>0.3657557766832605</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1765825555411994</v>
@@ -1229,7 +1229,7 @@
         <v>0.1704697852124312</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3730876354444772</v>
+        <v>0.3730876354444774</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1806968311814949</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1494196140747716</v>
+        <v>0.1490293617847045</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1627696986751001</v>
+        <v>0.1598467795140726</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1542902628008282</v>
+        <v>0.1521591209628952</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3289605089069758</v>
+        <v>0.3316884122545986</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1372936980751158</v>
+        <v>0.1412931529835542</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1549787632315234</v>
+        <v>0.1577088931932182</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1385481304985855</v>
+        <v>0.1351588624683061</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.343886854644309</v>
+        <v>0.3434383418440763</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.156332571211343</v>
+        <v>0.1550960859124487</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1672848196386011</v>
+        <v>0.1683698537467422</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1554779262729431</v>
+        <v>0.1568360568497658</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3464107778905843</v>
+        <v>0.345099533748255</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2294750608087884</v>
+        <v>0.2254067045486323</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2385268541944601</v>
+        <v>0.2362118512174227</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2279594765900462</v>
+        <v>0.2306124159012419</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4060931676303226</v>
+        <v>0.4092766036419018</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2144902098329033</v>
+        <v>0.2150461034120694</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2297100643825145</v>
+        <v>0.2302745190428739</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2068667921136898</v>
+        <v>0.2086158642669597</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4048146793400046</v>
+        <v>0.4060691825557091</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2059476509722397</v>
+        <v>0.2115530893263787</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2225630859589408</v>
+        <v>0.2240951460125488</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2068418399409607</v>
+        <v>0.2094624907300476</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3940012602219645</v>
+        <v>0.3923620712880993</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.4289794623260603</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.7382527032639681</v>
+        <v>0.738252703263968</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.4214734379461119</v>
@@ -1377,7 +1377,7 @@
         <v>0.4471827350146921</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.7303612495721463</v>
+        <v>0.7303612495721464</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3472993804225614</v>
+        <v>0.3443404761543599</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5141681476110165</v>
+        <v>0.5180894265004206</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4159135732708067</v>
+        <v>0.4168768796080364</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6844494489808215</v>
+        <v>0.6814706230126881</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3938365015587936</v>
+        <v>0.3924153420839124</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4206413281796679</v>
+        <v>0.4246525345663705</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3810217784785861</v>
+        <v>0.3771539114678206</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.7092603877451527</v>
+        <v>0.7066796425937197</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3796733768457375</v>
+        <v>0.3845361152554508</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4805201211782737</v>
+        <v>0.4841210972341841</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.409542825524056</v>
+        <v>0.4114896222279715</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.7050341943984934</v>
+        <v>0.7038937310550345</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4579635893311638</v>
+        <v>0.4537610548035576</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6333217883223828</v>
+        <v>0.637294729377187</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5235365659799042</v>
+        <v>0.5297565696808955</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7539924903599292</v>
+        <v>0.7570844027449781</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4944817909476595</v>
+        <v>0.4940273152443906</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5294655904101794</v>
+        <v>0.5294891357684844</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.4857147013765051</v>
+        <v>0.4831883880570441</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.7685296830054634</v>
+        <v>0.7647936408850952</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4563271472484037</v>
+        <v>0.4596260125878857</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5617104225074743</v>
+        <v>0.5645026740512119</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4861991746831681</v>
+        <v>0.4849820332880025</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.751850709013726</v>
+        <v>0.7533506622871289</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.6682262126874801</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8805902088086431</v>
+        <v>0.880590208808643</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.6176104090261385</v>
@@ -1501,7 +1501,7 @@
         <v>0.5979659365458336</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.8671416188195012</v>
+        <v>0.8671416188195011</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.6418747861104216</v>
@@ -1513,7 +1513,7 @@
         <v>0.62544259089558</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.8725258355246623</v>
+        <v>0.8725258355246622</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6102024539853256</v>
+        <v>0.6105371606989736</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6219635005408508</v>
+        <v>0.6215540693517629</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.614919428936011</v>
+        <v>0.6128752933883556</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.843420531125592</v>
+        <v>0.846138593058168</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.558243824662226</v>
+        <v>0.5599395454831424</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5953681518288214</v>
+        <v>0.5941266423520876</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5400115915469731</v>
+        <v>0.5420929958700303</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8414233936601561</v>
+        <v>0.8425857642044905</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6004013132616202</v>
+        <v>0.5938204187245002</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.6231261145080113</v>
+        <v>0.6245482611293135</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.5872961418563178</v>
+        <v>0.5895213215768136</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.8494974665678993</v>
+        <v>0.8508600883070578</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7361660958969802</v>
+        <v>0.7389971919356223</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7501823145958514</v>
+        <v>0.7540318916685715</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7174760483681025</v>
+        <v>0.7236641134696349</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9074484510774697</v>
+        <v>0.9088940594718675</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.67144643708962</v>
+        <v>0.6740046809828245</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.6988330789439484</v>
+        <v>0.6941946139978243</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.6510406118255471</v>
+        <v>0.6529211870065752</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8891542319566185</v>
+        <v>0.8885078087739356</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6840895440562542</v>
+        <v>0.6804967488537118</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.700050100630386</v>
+        <v>0.7039448903513557</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.6641787474963451</v>
+        <v>0.6671435585192989</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.890096713581326</v>
+        <v>0.8912629623599827</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.1729081448371995</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.3599366550332037</v>
+        <v>0.3599366550332035</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.1487998107173084</v>
@@ -1649,7 +1649,7 @@
         <v>0.1653330058630114</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.3352858010418433</v>
+        <v>0.3352858010418432</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1280754041279349</v>
+        <v>0.1268455631154454</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1638376777489812</v>
+        <v>0.162061517111001</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.146603495658466</v>
+        <v>0.1458655455479583</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.2936202356636157</v>
+        <v>0.2926907407507263</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1467255896697603</v>
+        <v>0.146255739206859</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1689427255807379</v>
+        <v>0.168994430499523</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1591200981543988</v>
+        <v>0.1603733286697046</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3455571848324721</v>
+        <v>0.3467979395838051</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1398209032903083</v>
+        <v>0.1402316234895329</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1703957927077572</v>
+        <v>0.1706466298258435</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1557340551663196</v>
+        <v>0.1559390549684145</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3254949496318338</v>
+        <v>0.325247387605506</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.150561539572192</v>
+        <v>0.1503478263911714</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1901750089915241</v>
+        <v>0.1919552390093179</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1702585967430945</v>
+        <v>0.1697210066435183</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.326502744985211</v>
+        <v>0.3238975471330842</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1723884966795035</v>
+        <v>0.1712582790597645</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1956517450342284</v>
+        <v>0.1964480818317585</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1861421914368506</v>
+        <v>0.1874192678264694</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3725533656038037</v>
+        <v>0.3747508455926532</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1579303435299776</v>
+        <v>0.1575253929321466</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1898345460167601</v>
+        <v>0.1889995870615094</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1741546503490619</v>
+        <v>0.1747458924051066</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.346787023965676</v>
+        <v>0.3452059779363593</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10162</v>
+        <v>10989</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>18153</v>
+        <v>18996</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14414</v>
+        <v>14809</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5459</v>
+        <v>5092</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5993</v>
+        <v>6049</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7394</v>
+        <v>7389</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8522</v>
+        <v>8706</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>28750</v>
+        <v>28097</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>20953</v>
+        <v>19786</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>30329</v>
+        <v>30539</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>26053</v>
+        <v>26879</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>38286</v>
+        <v>38807</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28221</v>
+        <v>27130</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>39699</v>
+        <v>40791</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>33280</v>
+        <v>33352</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>32014</v>
+        <v>28836</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19126</v>
+        <v>19957</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>23344</v>
+        <v>23006</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>24765</v>
+        <v>24303</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>64424</v>
+        <v>65521</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>43576</v>
+        <v>41253</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>55051</v>
+        <v>55420</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>51631</v>
+        <v>51391</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>80889</v>
+        <v>80684</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23667</v>
+        <v>22955</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>29600</v>
+        <v>30372</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15749</v>
+        <v>15817</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>36604</v>
+        <v>36634</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>15240</v>
+        <v>14510</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>22257</v>
+        <v>22733</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>15785</v>
+        <v>15628</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>64711</v>
+        <v>63976</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>43496</v>
+        <v>43468</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>59085</v>
+        <v>57911</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>35883</v>
+        <v>36204</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>111290</v>
+        <v>111432</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>47467</v>
+        <v>46812</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>56221</v>
+        <v>56405</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>35890</v>
+        <v>34876</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>73112</v>
+        <v>72648</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>34093</v>
+        <v>35378</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>45421</v>
+        <v>45334</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>35463</v>
+        <v>32784</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>101002</v>
+        <v>98908</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>74072</v>
+        <v>73067</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>93259</v>
+        <v>94594</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>61346</v>
+        <v>62532</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>162096</v>
+        <v>160253</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>24196</v>
+        <v>24232</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>37585</v>
+        <v>37782</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10271</v>
+        <v>10723</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>72920</v>
+        <v>73970</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>32198</v>
+        <v>32653</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>39307</v>
+        <v>37848</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>31548</v>
+        <v>31381</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>82788</v>
+        <v>83353</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>63350</v>
+        <v>61877</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>82193</v>
+        <v>82933</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>47594</v>
+        <v>47428</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>167800</v>
+        <v>169104</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>48262</v>
+        <v>48484</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>66531</v>
+        <v>65913</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28421</v>
+        <v>29483</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>111585</v>
+        <v>114807</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>59013</v>
+        <v>58804</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>66585</v>
+        <v>66874</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>58154</v>
+        <v>58023</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>115876</v>
+        <v>115247</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>100071</v>
+        <v>97273</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>123034</v>
+        <v>124570</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>77930</v>
+        <v>80247</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>219454</v>
+        <v>217857</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>28014</v>
+        <v>27404</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>38988</v>
+        <v>39336</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>39345</v>
+        <v>38199</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>121674</v>
+        <v>122793</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>17423</v>
+        <v>16920</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>30557</v>
+        <v>31189</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>33338</v>
+        <v>32814</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>149037</v>
+        <v>149541</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>50432</v>
+        <v>51437</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>77385</v>
+        <v>77057</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>80345</v>
+        <v>77031</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>284224</v>
+        <v>282706</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>54354</v>
+        <v>52765</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>67565</v>
+        <v>67765</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>67062</v>
+        <v>68046</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>165607</v>
+        <v>167384</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>37838</v>
+        <v>37639</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>61892</v>
+        <v>59378</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>60564</v>
+        <v>61787</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>184360</v>
+        <v>184684</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>81652</v>
+        <v>83989</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>118866</v>
+        <v>118701</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>119358</v>
+        <v>118003</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>341711</v>
+        <v>339554</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>57782</v>
+        <v>57631</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>69733</v>
+        <v>68481</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>73738</v>
+        <v>72720</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>200451</v>
+        <v>202113</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>55465</v>
+        <v>57080</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>69399</v>
+        <v>70622</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>68838</v>
+        <v>67154</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>209129</v>
+        <v>208856</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>123612</v>
+        <v>122634</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>146577</v>
+        <v>147528</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>151555</v>
+        <v>152879</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>421748</v>
+        <v>420151</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>88740</v>
+        <v>87167</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>102188</v>
+        <v>101197</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>108946</v>
+        <v>110214</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>247451</v>
+        <v>249391</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>86651</v>
+        <v>86876</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>102864</v>
+        <v>103117</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>102782</v>
+        <v>103651</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>246181</v>
+        <v>246944</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>162842</v>
+        <v>167274</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>195013</v>
+        <v>196356</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>201623</v>
+        <v>204177</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>479688</v>
+        <v>477693</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>101296</v>
+        <v>100433</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>159282</v>
+        <v>160497</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>139052</v>
+        <v>139374</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>278626</v>
+        <v>277413</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>135060</v>
+        <v>134573</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>148905</v>
+        <v>150325</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>143936</v>
+        <v>142474</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>311483</v>
+        <v>310350</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>240942</v>
+        <v>244028</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>318961</v>
+        <v>321351</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>291632</v>
+        <v>293018</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>596632</v>
+        <v>595667</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>133574</v>
+        <v>132348</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>196194</v>
+        <v>197425</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>175034</v>
+        <v>177114</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>306935</v>
+        <v>308194</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>169575</v>
+        <v>169419</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>187429</v>
+        <v>187437</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>183485</v>
+        <v>182530</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>337512</v>
+        <v>335871</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>289587</v>
+        <v>291680</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>372853</v>
+        <v>374707</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>346219</v>
+        <v>345352</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>636251</v>
+        <v>637520</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>128071</v>
+        <v>128141</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>154759</v>
+        <v>154658</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>158033</v>
+        <v>157508</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>261627</v>
+        <v>262470</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>186402</v>
+        <v>186968</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>231586</v>
+        <v>231103</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>216096</v>
+        <v>216929</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>390933</v>
+        <v>391473</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>326493</v>
+        <v>322914</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>397432</v>
+        <v>398339</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>385952</v>
+        <v>387414</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>658197</v>
+        <v>659252</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>154509</v>
+        <v>155103</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>186663</v>
+        <v>187621</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>184390</v>
+        <v>185980</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>281489</v>
+        <v>281937</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>224201</v>
+        <v>225056</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>271831</v>
+        <v>270027</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>260526</v>
+        <v>261279</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>413109</v>
+        <v>412809</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>372002</v>
+        <v>370048</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>446494</v>
+        <v>448978</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>436476</v>
+        <v>438425</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>689653</v>
+        <v>690557</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>419419</v>
+        <v>415391</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>560612</v>
+        <v>554535</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>497624</v>
+        <v>495119</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1037290</v>
+        <v>1034007</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>495536</v>
+        <v>493950</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>600969</v>
+        <v>601153</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>564008</v>
+        <v>568450</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1290358</v>
+        <v>1294991</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>930100</v>
+        <v>932832</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1189191</v>
+        <v>1190942</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1080622</v>
+        <v>1082044</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>2365339</v>
+        <v>2363540</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>493056</v>
+        <v>492356</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>650732</v>
+        <v>656824</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>577917</v>
+        <v>576092</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1153456</v>
+        <v>1144253</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>582208</v>
+        <v>578391</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>695980</v>
+        <v>698813</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>659789</v>
+        <v>664315</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1391165</v>
+        <v>1399371</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1050565</v>
+        <v>1047871</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1324854</v>
+        <v>1319027</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1208440</v>
+        <v>1212543</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>2520066</v>
+        <v>2508577</v>
       </c>
     </row>
     <row r="36">
